--- a/Scoring/scoring.xlsx
+++ b/Scoring/scoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliann/Documents/Northeastern Grad/DS 5500/capstone-project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliann/Documents/Northeastern Grad/DS 5500/capstone-project/scoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1020184B-C0A2-E544-8DE7-46D972557EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3BA52E-EC32-D34B-BD68-886CC1240992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21200" yWindow="500" windowWidth="16620" windowHeight="16940" xr2:uid="{6F10EAA5-9E36-E24C-A236-5C2399C38985}"/>
+    <workbookView xWindow="16520" yWindow="500" windowWidth="16620" windowHeight="16940" xr2:uid="{6F10EAA5-9E36-E24C-A236-5C2399C38985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A5CA69-EA89-B54E-A28C-60B49511B534}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
